--- a/xlsx/test2.xlsx
+++ b/xlsx/test2.xlsx
@@ -3,16 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="16320" yWindow="500" windowWidth="17280" windowHeight="18760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet1'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$I$27</definedName>
-  </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -156,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -333,25 +330,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -409,6 +392,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,10 +426,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,35 +451,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -475,10 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,36 +532,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6762750" cy="1390650"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,91 +855,91 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:I27"/>
+  <dimension ref="A3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="5.33203125" customWidth="1" style="22" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="22" min="2" max="2"/>
-    <col width="9" customWidth="1" style="22" min="3" max="4"/>
-    <col width="6.33203125" customWidth="1" style="22" min="6" max="6"/>
-    <col width="8.33203125" customWidth="1" style="22" min="7" max="7"/>
-    <col width="13.5" customWidth="1" style="22" min="8" max="8"/>
-    <col width="18.6640625" customWidth="1" style="22" min="9" max="9"/>
+    <col width="5.33203125" customWidth="1" style="31" min="1" max="1"/>
+    <col width="7.6640625" customWidth="1" style="31" min="2" max="2"/>
+    <col width="9" customWidth="1" style="31" min="3" max="4"/>
+    <col width="6.33203125" customWidth="1" style="31" min="6" max="6"/>
+    <col width="8.33203125" customWidth="1" style="31" min="7" max="7"/>
+    <col width="13.5" customWidth="1" style="31" min="8" max="8"/>
+    <col width="18.6640625" customWidth="1" style="31" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="118" customHeight="1" s="22"/>
-    <row r="2" hidden="1" s="22"/>
+    <row r="1" ht="118" customHeight="1" s="31"/>
+    <row r="2" hidden="1" s="31"/>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">TIN No.: </t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="37" t="inlineStr">
+      <c r="B3" s="21" t="n"/>
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>127-682-879</t>
         </is>
       </c>
-      <c r="D3" s="37" t="n"/>
-      <c r="E3" s="37" t="n"/>
-      <c r="F3" s="38" t="n"/>
-      <c r="G3" s="38" t="n"/>
-      <c r="H3" s="39" t="inlineStr">
+      <c r="D3" s="21" t="n"/>
+      <c r="E3" s="21" t="n"/>
+      <c r="F3" s="22" t="n"/>
+      <c r="G3" s="22" t="n"/>
+      <c r="H3" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve"> VRN No.:</t>
         </is>
       </c>
-      <c r="I3" s="39" t="inlineStr">
+      <c r="I3" s="23" t="inlineStr">
         <is>
           <t>40-024528-W</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" s="22">
-      <c r="A4" s="40" t="inlineStr">
+    <row r="4" ht="16" customHeight="1" s="31">
+      <c r="A4" s="24" t="inlineStr">
         <is>
           <t>LC NUMBER.:</t>
         </is>
       </c>
-      <c r="B4" s="41" t="n"/>
-      <c r="C4" s="40" t="inlineStr">
-        <is>
-          <t>002LCNB250350001</t>
-        </is>
-      </c>
-      <c r="D4" s="41" t="n"/>
-      <c r="E4" s="42" t="n"/>
-      <c r="F4" s="42" t="n"/>
-      <c r="G4" s="42" t="n"/>
-      <c r="H4" s="42" t="n"/>
-      <c r="I4" s="42" t="n"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" s="22">
-      <c r="A5" s="40" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G11		</t>
+        </is>
+      </c>
+      <c r="D4" s="25" t="n"/>
+      <c r="E4" s="26" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="26" t="n"/>
+      <c r="H4" s="26" t="n"/>
+      <c r="I4" s="26" t="n"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" s="31">
+      <c r="A5" s="24" t="inlineStr">
         <is>
           <t>Ref. PROFORMA INVOICE No.:</t>
         </is>
       </c>
-      <c r="B5" s="40" t="n"/>
-      <c r="C5" s="40" t="n"/>
-      <c r="D5" s="40" t="inlineStr">
-        <is>
-          <t>EC-202501-STEG-LC-COND-L6-B2 DATED 31-01-2025</t>
-        </is>
-      </c>
-      <c r="E5" s="43" t="n"/>
-      <c r="F5" s="44" t="n"/>
-      <c r="G5" s="45" t="n"/>
-      <c r="H5" s="45" t="n"/>
-      <c r="I5" s="45" t="n"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" s="22">
+      <c r="B5" s="24" t="n"/>
+      <c r="C5" s="24" t="n"/>
+      <c r="D5" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G11		</t>
+        </is>
+      </c>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="29" t="n"/>
+      <c r="H5" s="29" t="n"/>
+      <c r="I5" s="29" t="n"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" s="31">
       <c r="A6" s="8" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
@@ -1000,8 +949,8 @@
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
     </row>
-    <row r="7" ht="34" customHeight="1" s="22">
-      <c r="A7" s="21" t="inlineStr">
+    <row r="7" ht="34" customHeight="1" s="31">
+      <c r="A7" s="30" t="inlineStr">
         <is>
           <t>COMMERCIAL INVOICE</t>
         </is>
@@ -1022,45 +971,42 @@
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="7" t="n"/>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="G9" s="22" t="inlineStr">
         <is>
           <t>Invoice No.:</t>
         </is>
       </c>
-      <c r="H9" s="46" t="inlineStr">
-        <is>
-          <t>INV-STEG-LC-2025-001</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" s="22" thickBot="1">
+      <c r="H9" s="35">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" s="31" thickBot="1">
       <c r="A10" s="6" t="n"/>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
-      <c r="G10" s="38" t="inlineStr">
+      <c r="G10" s="22" t="inlineStr">
         <is>
           <t>Invoice Date:</t>
         </is>
       </c>
-      <c r="H10" s="46" t="inlineStr">
-        <is>
-          <t>19-02-2025</t>
-        </is>
+      <c r="H10" s="35">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="34" t="inlineStr">
+      <c r="A11" s="45" t="inlineStr">
         <is>
           <t xml:space="preserve">Client: </t>
         </is>
       </c>
-      <c r="B11" s="36" t="inlineStr">
-        <is>
-          <t>STEG INTERNATIONAL SERVICES</t>
-        </is>
+      <c r="B11" s="47">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v/>
       </c>
       <c r="C11" s="48" t="n"/>
       <c r="D11" s="48" t="n"/>
@@ -1070,10 +1016,9 @@
           <t>TIN:</t>
         </is>
       </c>
-      <c r="G11" s="31" t="inlineStr">
-        <is>
-          <t>122-855-929</t>
-        </is>
+      <c r="G11" s="42">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v/>
       </c>
       <c r="H11" s="48" t="n"/>
       <c r="I11" s="49" t="n"/>
@@ -1085,16 +1030,15 @@
           <t>VRN:</t>
         </is>
       </c>
-      <c r="G12" s="28" t="inlineStr">
-        <is>
-          <t>40-018812-P</t>
-        </is>
+      <c r="G12" s="39">
+        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
+        <v/>
       </c>
       <c r="H12" s="51" t="n"/>
       <c r="I12" s="52" t="n"/>
     </row>
-    <row r="13" ht="97" customHeight="1" s="22" thickBot="1">
-      <c r="A13" s="23" t="inlineStr">
+    <row r="13" ht="97" customHeight="1" s="31" thickBot="1">
+      <c r="A13" s="32" t="inlineStr">
         <is>
           <t>PAYMENT INFORMATION:
 Name of Account Holder(s)：
@@ -1114,7 +1058,7 @@
       <c r="H13" s="53" t="n"/>
       <c r="I13" s="54" t="n"/>
     </row>
-    <row r="14" ht="17" customHeight="1" s="22">
+    <row r="14" ht="17" customHeight="1" s="31">
       <c r="A14" s="12" t="n"/>
       <c r="B14" s="12" t="n"/>
       <c r="C14" s="12" t="n"/>
@@ -1125,163 +1069,99 @@
       <c r="H14" s="12" t="n"/>
       <c r="I14" s="12" t="n"/>
     </row>
-    <row r="15" ht="30" customHeight="1" s="22">
-      <c r="A15" s="27" t="inlineStr">
+    <row r="15" ht="30" customHeight="1" s="31">
+      <c r="A15" s="37" t="inlineStr">
         <is>
           <t>SN.</t>
         </is>
       </c>
-      <c r="B15" s="27" t="inlineStr">
+      <c r="B15" s="37" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F15" s="27" t="inlineStr">
+      <c r="F15" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="G15" s="27" t="inlineStr">
+      <c r="G15" s="37" t="inlineStr">
         <is>
           <t>QTY.</t>
         </is>
       </c>
-      <c r="H15" s="27" t="inlineStr">
+      <c r="H15" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve"> DAP Unit Price (TZS)</t>
         </is>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="37" t="inlineStr">
         <is>
           <t>Total Price (TZS)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="55" t="inlineStr">
-        <is>
-          <t>LV ABC CABLE 4*95 sqmm</t>
-        </is>
-      </c>
-      <c r="C16" s="55" t="inlineStr">
-        <is>
-          <t>KM</t>
-        </is>
-      </c>
-      <c r="D16" s="55" t="n">
-        <v>78</v>
-      </c>
-      <c r="E16" s="55" t="n">
-        <v>14295000</v>
-      </c>
-      <c r="F16" s="56" t="n"/>
-      <c r="G16" s="56" t="n"/>
-      <c r="H16" s="56" t="n"/>
-      <c r="I16" s="56" t="n"/>
+      <c r="A16" s="20" t="n"/>
+      <c r="B16" s="38" t="n"/>
+      <c r="C16" s="38" t="n"/>
+      <c r="D16" s="38" t="n"/>
+      <c r="E16" s="38" t="n"/>
+      <c r="F16" s="38" t="n"/>
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="18" t="inlineStr">
+        <is>
+          <t>Sub Total (TZS):</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="55" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="55" t="inlineStr">
-        <is>
-          <t>LV ABC CABLE 4*50 sqmm</t>
-        </is>
-      </c>
-      <c r="C17" s="55" t="inlineStr">
-        <is>
-          <t>KM</t>
-        </is>
-      </c>
-      <c r="D17" s="55" t="n">
-        <v>30</v>
-      </c>
-      <c r="E17" s="55" t="n">
-        <v>8074000</v>
-      </c>
-      <c r="F17" s="56" t="n"/>
-      <c r="G17" s="56" t="n"/>
-      <c r="H17" s="56" t="n"/>
-      <c r="I17" s="56" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="38" t="n"/>
+      <c r="C17" s="38" t="n"/>
+      <c r="D17" s="38" t="n"/>
+      <c r="E17" s="38" t="n"/>
+      <c r="F17" s="38" t="n"/>
+      <c r="G17" s="38" t="n"/>
+      <c r="H17" s="18" t="inlineStr">
+        <is>
+          <t>10%  Advance payment:</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="56" t="n"/>
-      <c r="B18" s="56" t="n"/>
-      <c r="C18" s="56" t="n"/>
-      <c r="D18" s="56" t="n"/>
-      <c r="E18" s="56" t="n"/>
-      <c r="F18" s="56" t="n"/>
-      <c r="G18" s="56" t="n"/>
-      <c r="H18" s="56" t="n"/>
-      <c r="I18" s="56" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="n"/>
-      <c r="B19" s="26" t="n"/>
-      <c r="C19" s="26" t="n"/>
-      <c r="D19" s="26" t="n"/>
-      <c r="E19" s="26" t="n"/>
-      <c r="F19" s="26" t="n"/>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="18" t="inlineStr">
-        <is>
-          <t>Sub Total (TZS):</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="26" t="n"/>
-      <c r="C20" s="26" t="n"/>
-      <c r="D20" s="26" t="n"/>
-      <c r="E20" s="26" t="n"/>
-      <c r="F20" s="26" t="n"/>
-      <c r="G20" s="26" t="n"/>
-      <c r="H20" s="18" t="inlineStr">
-        <is>
-          <t>10%  Advance payment:</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="26" t="n"/>
-      <c r="B21" s="26" t="n"/>
-      <c r="C21" s="26" t="n"/>
-      <c r="D21" s="26" t="n"/>
-      <c r="E21" s="26" t="n"/>
-      <c r="F21" s="26" t="n"/>
-      <c r="G21" s="26" t="n"/>
-      <c r="H21" s="18" t="inlineStr">
+      <c r="A18" s="38" t="n"/>
+      <c r="B18" s="38" t="n"/>
+      <c r="C18" s="38" t="n"/>
+      <c r="D18" s="38" t="n"/>
+      <c r="E18" s="38" t="n"/>
+      <c r="F18" s="38" t="n"/>
+      <c r="G18" s="38" t="n"/>
+      <c r="H18" s="18" t="inlineStr">
         <is>
           <t>To be paid through LC 180-days:</t>
         </is>
       </c>
-      <c r="I21" s="17" t="n"/>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25">
-      <c r="A25" s="26" t="inlineStr">
+      <c r="I18" s="17" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="38" t="inlineStr">
         <is>
           <t>Issued by LIZHI DENG</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="26" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="38" t="inlineStr">
         <is>
           <t>Sales &amp; Marketing Manager</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="26" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="38" t="inlineStr">
         <is>
           <t>EVERWELL CABLE &amp; ENGINEERING CO., LTD</t>
         </is>
@@ -1309,6 +1189,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/test2.xlsx
+++ b/xlsx/test2.xlsx
@@ -15,10 +15,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="18">
-    <font>
-      <name val="Aptos Narrow"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <name val="等线"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -38,7 +40,7 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
@@ -66,7 +68,7 @@
       <sz val="26"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
@@ -117,14 +119,14 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
@@ -137,6 +139,17 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -330,11 +343,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -417,6 +488,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,9 +530,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -532,6 +618,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6762750" cy="1390650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,25 +971,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:I24"/>
+  <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="5.33203125" customWidth="1" style="31" min="1" max="1"/>
-    <col width="7.6640625" customWidth="1" style="31" min="2" max="2"/>
-    <col width="9" customWidth="1" style="31" min="3" max="4"/>
-    <col width="6.33203125" customWidth="1" style="31" min="6" max="6"/>
-    <col width="8.33203125" customWidth="1" style="31" min="7" max="7"/>
-    <col width="13.5" customWidth="1" style="31" min="8" max="8"/>
-    <col width="18.6640625" customWidth="1" style="31" min="9" max="9"/>
+    <col width="5.33203125" customWidth="1" style="32" min="1" max="1"/>
+    <col width="7.6640625" customWidth="1" style="32" min="2" max="2"/>
+    <col width="9" customWidth="1" style="32" min="3" max="4"/>
+    <col width="6.33203125" customWidth="1" style="32" min="6" max="6"/>
+    <col width="8.33203125" customWidth="1" style="32" min="7" max="7"/>
+    <col width="13.5" customWidth="1" style="32" min="8" max="8"/>
+    <col width="18.6640625" customWidth="1" style="32" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="118" customHeight="1" s="31"/>
-    <row r="2" hidden="1" s="31"/>
+    <row r="1" ht="118" customHeight="1" s="32"/>
+    <row r="2" hidden="1" s="32"/>
     <row r="3">
       <c r="A3" s="21" t="inlineStr">
         <is>
@@ -901,16 +1017,16 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1" s="31">
+    <row r="4" ht="16" customHeight="1" s="32">
       <c r="A4" s="24" t="inlineStr">
         <is>
-          <t>LC NUMBER.:</t>
+          <t>Ref. LC NUMBER.:</t>
         </is>
       </c>
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="24" t="inlineStr">
         <is>
-          <t xml:space="preserve">G11		</t>
+          <t>002LCNB250350001</t>
         </is>
       </c>
       <c r="D4" s="25" t="n"/>
@@ -920,7 +1036,7 @@
       <c r="H4" s="26" t="n"/>
       <c r="I4" s="26" t="n"/>
     </row>
-    <row r="5" ht="16" customHeight="1" s="31">
+    <row r="5" ht="16" customHeight="1" s="32">
       <c r="A5" s="24" t="inlineStr">
         <is>
           <t>Ref. PROFORMA INVOICE No.:</t>
@@ -930,7 +1046,7 @@
       <c r="C5" s="24" t="n"/>
       <c r="D5" s="24" t="inlineStr">
         <is>
-          <t xml:space="preserve">G11		</t>
+          <t>EC-202501-STEG-LC-COND-L6-B2 DATED 31-01-2025</t>
         </is>
       </c>
       <c r="E5" s="27" t="n"/>
@@ -939,7 +1055,7 @@
       <c r="H5" s="29" t="n"/>
       <c r="I5" s="29" t="n"/>
     </row>
-    <row r="6" ht="16" customHeight="1" s="31">
+    <row r="6" ht="16" customHeight="1" s="32">
       <c r="A6" s="8" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
@@ -949,8 +1065,8 @@
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
     </row>
-    <row r="7" ht="34" customHeight="1" s="31">
-      <c r="A7" s="30" t="inlineStr">
+    <row r="7" ht="34" customHeight="1" s="32">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>COMMERCIAL INVOICE</t>
         </is>
@@ -976,12 +1092,13 @@
           <t>Invoice No.:</t>
         </is>
       </c>
-      <c r="H9" s="35">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="1" s="31" thickBot="1">
+      <c r="H9" s="36" t="inlineStr">
+        <is>
+          <t>INV-STEG-LC-2025-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1" s="32" thickBot="1">
       <c r="A10" s="6" t="n"/>
       <c r="B10" s="6" t="n"/>
       <c r="C10" s="6" t="n"/>
@@ -993,52 +1110,56 @@
           <t>Invoice Date:</t>
         </is>
       </c>
-      <c r="H10" s="35">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v/>
+      <c r="H10" s="36" t="inlineStr">
+        <is>
+          <t>19-02-2025</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="inlineStr">
+      <c r="A11" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">Client: </t>
         </is>
       </c>
-      <c r="B11" s="47">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v/>
-      </c>
-      <c r="C11" s="48" t="n"/>
-      <c r="D11" s="48" t="n"/>
-      <c r="E11" s="48" t="n"/>
+      <c r="B11" s="48" t="inlineStr">
+        <is>
+          <t>STEG INTERNATIONAL SERVICES</t>
+        </is>
+      </c>
+      <c r="C11" s="49" t="n"/>
+      <c r="D11" s="49" t="n"/>
+      <c r="E11" s="49" t="n"/>
       <c r="F11" s="9" t="inlineStr">
         <is>
           <t>TIN:</t>
         </is>
       </c>
-      <c r="G11" s="42">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v/>
-      </c>
-      <c r="H11" s="48" t="n"/>
-      <c r="I11" s="49" t="n"/>
+      <c r="G11" s="43" t="inlineStr">
+        <is>
+          <t>122-855-929</t>
+        </is>
+      </c>
+      <c r="H11" s="49" t="n"/>
+      <c r="I11" s="50" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="50" t="n"/>
+      <c r="A12" s="51" t="n"/>
       <c r="F12" s="11" t="inlineStr">
         <is>
           <t>VRN:</t>
         </is>
       </c>
-      <c r="G12" s="39">
-        <f>ADDRESS(ROW(), COLUMN(), 4)</f>
-        <v/>
-      </c>
-      <c r="H12" s="51" t="n"/>
-      <c r="I12" s="52" t="n"/>
-    </row>
-    <row r="13" ht="97" customHeight="1" s="31" thickBot="1">
-      <c r="A13" s="32" t="inlineStr">
+      <c r="G12" s="40" t="inlineStr">
+        <is>
+          <t>40-018812-P</t>
+        </is>
+      </c>
+      <c r="H12" s="52" t="n"/>
+      <c r="I12" s="53" t="n"/>
+    </row>
+    <row r="13" ht="97" customHeight="1" s="32" thickBot="1">
+      <c r="A13" s="33" t="inlineStr">
         <is>
           <t>PAYMENT INFORMATION:
 Name of Account Holder(s)：
@@ -1049,16 +1170,16 @@
 0250299724300(USD)</t>
         </is>
       </c>
-      <c r="B13" s="53" t="n"/>
-      <c r="C13" s="53" t="n"/>
-      <c r="D13" s="53" t="n"/>
-      <c r="E13" s="53" t="n"/>
-      <c r="F13" s="53" t="n"/>
-      <c r="G13" s="53" t="n"/>
-      <c r="H13" s="53" t="n"/>
-      <c r="I13" s="54" t="n"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" s="31">
+      <c r="B13" s="54" t="n"/>
+      <c r="C13" s="54" t="n"/>
+      <c r="D13" s="54" t="n"/>
+      <c r="E13" s="54" t="n"/>
+      <c r="F13" s="54" t="n"/>
+      <c r="G13" s="54" t="n"/>
+      <c r="H13" s="54" t="n"/>
+      <c r="I13" s="55" t="n"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" s="32">
       <c r="A14" s="12" t="n"/>
       <c r="B14" s="12" t="n"/>
       <c r="C14" s="12" t="n"/>
@@ -1069,109 +1190,212 @@
       <c r="H14" s="12" t="n"/>
       <c r="I14" s="12" t="n"/>
     </row>
-    <row r="15" ht="30" customHeight="1" s="31">
-      <c r="A15" s="37" t="inlineStr">
+    <row r="15" ht="30" customHeight="1" s="32">
+      <c r="A15" s="38" t="inlineStr">
         <is>
           <t>SN.</t>
         </is>
       </c>
-      <c r="B15" s="37" t="inlineStr">
+      <c r="B15" s="38" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F15" s="37" t="inlineStr">
+      <c r="F15" s="38" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="G15" s="37" t="inlineStr">
+      <c r="G15" s="38" t="inlineStr">
         <is>
           <t>QTY.</t>
         </is>
       </c>
-      <c r="H15" s="37" t="inlineStr">
+      <c r="H15" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve"> DAP Unit Price (TZS)</t>
         </is>
       </c>
-      <c r="I15" s="37" t="inlineStr">
+      <c r="I15" s="38" t="inlineStr">
         <is>
           <t>Total Price (TZS)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="n"/>
-      <c r="B16" s="38" t="n"/>
-      <c r="C16" s="38" t="n"/>
-      <c r="D16" s="38" t="n"/>
-      <c r="E16" s="38" t="n"/>
-      <c r="F16" s="38" t="n"/>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="18" t="inlineStr">
+      <c r="A16" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="57" t="inlineStr">
+        <is>
+          <t>LV ABC CABLE 4*95 sqmm</t>
+        </is>
+      </c>
+      <c r="C16" s="58" t="n"/>
+      <c r="D16" s="58" t="n"/>
+      <c r="E16" s="59" t="n"/>
+      <c r="F16" s="57" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="G16" s="57" t="n">
+        <v>78</v>
+      </c>
+      <c r="H16" s="57" t="n">
+        <v>14295000</v>
+      </c>
+      <c r="I16" s="56">
+        <f>(G16*H16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="57" t="inlineStr">
+        <is>
+          <t>LV ABC CABLE 4*50 sqmm</t>
+        </is>
+      </c>
+      <c r="C17" s="58" t="n"/>
+      <c r="D17" s="58" t="n"/>
+      <c r="E17" s="59" t="n"/>
+      <c r="F17" s="57" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="G17" s="57" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" s="57" t="n">
+        <v>8074000</v>
+      </c>
+      <c r="I17" s="56">
+        <f>(G17*H17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="57" t="inlineStr">
+        <is>
+          <t>LV ABC CABLE 4*25 sqmm</t>
+        </is>
+      </c>
+      <c r="C18" s="58" t="n"/>
+      <c r="D18" s="58" t="n"/>
+      <c r="E18" s="59" t="n"/>
+      <c r="F18" s="57" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="G18" s="57" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" s="57" t="n">
+        <v>123</v>
+      </c>
+      <c r="I18" s="56">
+        <f>(G18*H18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="n"/>
+      <c r="B19" s="39" t="n"/>
+      <c r="C19" s="39" t="n"/>
+      <c r="D19" s="39" t="n"/>
+      <c r="E19" s="39" t="n"/>
+      <c r="F19" s="39" t="n"/>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="18" t="inlineStr">
         <is>
           <t>Sub Total (TZS):</t>
         </is>
       </c>
-      <c r="I16" s="16" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n"/>
-      <c r="B17" s="38" t="n"/>
-      <c r="C17" s="38" t="n"/>
-      <c r="D17" s="38" t="n"/>
-      <c r="E17" s="38" t="n"/>
-      <c r="F17" s="38" t="n"/>
-      <c r="G17" s="38" t="n"/>
-      <c r="H17" s="18" t="inlineStr">
+      <c r="I19" s="60">
+        <f>SUM(I16:I18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="39" t="n"/>
+      <c r="C20" s="39" t="n"/>
+      <c r="D20" s="39" t="n"/>
+      <c r="E20" s="39" t="n"/>
+      <c r="F20" s="39" t="n"/>
+      <c r="G20" s="39" t="n"/>
+      <c r="H20" s="18" t="inlineStr">
         <is>
           <t>10%  Advance payment:</t>
         </is>
       </c>
-      <c r="I17" s="17" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="38" t="n"/>
-      <c r="B18" s="38" t="n"/>
-      <c r="C18" s="38" t="n"/>
-      <c r="D18" s="38" t="n"/>
-      <c r="E18" s="38" t="n"/>
-      <c r="F18" s="38" t="n"/>
-      <c r="G18" s="38" t="n"/>
-      <c r="H18" s="18" t="inlineStr">
+      <c r="I20" s="61">
+        <f>I19*18%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="39" t="n"/>
+      <c r="B21" s="39" t="n"/>
+      <c r="C21" s="39" t="n"/>
+      <c r="D21" s="39" t="n"/>
+      <c r="E21" s="39" t="n"/>
+      <c r="F21" s="39" t="n"/>
+      <c r="G21" s="39" t="n"/>
+      <c r="H21" s="18" t="inlineStr">
         <is>
           <t>To be paid through LC 180-days:</t>
         </is>
       </c>
-      <c r="I18" s="17" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="38" t="inlineStr">
+      <c r="I21" s="61">
+        <f>I20*18%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="30" t="n"/>
+      <c r="C24" s="30" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="39" t="inlineStr">
         <is>
           <t>Issued by LIZHI DENG</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="38" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="39" t="inlineStr">
         <is>
           <t>Sales &amp; Marketing Manager</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="38" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="39" t="inlineStr">
         <is>
           <t>EVERWELL CABLE &amp; ENGINEERING CO., LTD</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="A13:I13"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B11:E12"/>
@@ -1189,5 +1413,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>